--- a/test1old.xlsx
+++ b/test1old.xlsx
@@ -20,18 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t xml:space="preserve">Example TableOld</t>
   </si>
   <si>
-    <t xml:space="preserve">Diff test:  xltablediff.py  --key=ID test1old.xlsx test1new.xlsx --out test1diff.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge test:  xltablediff.py  --key=ID test1old.xlsx test1new.xlsx --merge=Color --out test1merge.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Append test:  xltablediff.py  --key=ID test1old.xlsx test1new.xlsx --append --out test1append.xlsx</t>
+    <t xml:space="preserve">Diff test:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xltablediff.py  --key ID test1old.xlsx test1new.xlsx --out test1diff.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge test:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xltablediff.py  --key ID --merge Color test1old.xlsx test1new.xlsx --out test1merge.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Append test:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xltablediff.py  --key ID --append test1old.xlsx test1new.xlsx --out test1append.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">Date</t>
@@ -153,7 +162,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -182,6 +191,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -231,7 +245,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -241,6 +255,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -276,10 +294,10 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -290,228 +308,237 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="4" t="n">
         <v>44866</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="5" t="n">
         <v>44866</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="5" t="n">
         <v>44867</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="5" t="n">
         <v>44867</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+      <c r="A11" s="5" t="n">
         <v>44868</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="5" t="n">
         <v>44870</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+      <c r="A13" s="5" t="n">
         <v>44870</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="5" t="n">
         <v>44871</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+      <c r="A15" s="5" t="n">
         <v>44872</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="5" t="n">
         <v>44885</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+      <c r="A17" s="5" t="n">
         <v>44886</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="5"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="F19" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/test1old.xlsx
+++ b/test1old.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t xml:space="preserve">Example TableOld</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t xml:space="preserve">xltablediff.py  --key ID test1old.xlsx test1new.xlsx --out test1diff.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignore test:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xltablediff.py  --key ID --ignore Color test1old.xlsx test1new.xlsx --out test1ignore.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">Merge test:</t>
@@ -162,7 +168,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -191,11 +197,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -245,7 +246,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -255,10 +256,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -291,13 +288,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B4"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -308,7 +305,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -316,7 +313,7 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -324,221 +321,229 @@
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
         <v>44866</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
         <v>44866</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
         <v>44867</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
         <v>44867</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B11" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="n">
         <v>44868</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B12" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="n">
         <v>44870</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B13" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="n">
         <v>44870</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B14" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="n">
         <v>44871</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B15" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
+      <c r="D15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="n">
         <v>44872</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B16" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
-        <v>44885</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
-        <v>44886</v>
+      <c r="A17" s="4" t="n">
+        <v>44885</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="6"/>
+      <c r="A18" s="4" t="n">
+        <v>44886</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="6"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/test1old.xlsx
+++ b/test1old.xlsx
@@ -198,12 +198,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDF7CAA"/>
+        <bgColor rgb="FFFF99CC"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -246,7 +252,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -267,7 +273,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -280,6 +290,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFDF7CAA"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -291,10 +361,10 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:B3"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -425,7 +495,7 @@
       <c r="B12" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -537,13 +607,13 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="5"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/test1old.xlsx
+++ b/test1old.xlsx
@@ -198,12 +198,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -252,7 +258,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -265,6 +271,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -273,11 +283,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -361,10 +371,10 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -396,7 +406,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -421,7 +431,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="4" t="n">
         <v>44866</v>
       </c>
       <c r="B8" s="2" t="n">
@@ -438,7 +448,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="5" t="n">
         <v>44866</v>
       </c>
       <c r="B9" s="2" t="n">
@@ -455,7 +465,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="5" t="n">
         <v>44867</v>
       </c>
       <c r="B10" s="2" t="n">
@@ -472,7 +482,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+      <c r="A11" s="5" t="n">
         <v>44867</v>
       </c>
       <c r="B11" s="2" t="n">
@@ -489,13 +499,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="5" t="n">
         <v>44868</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -506,7 +516,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+      <c r="A13" s="5" t="n">
         <v>44870</v>
       </c>
       <c r="B13" s="2" t="n">
@@ -523,7 +533,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="5" t="n">
         <v>44870</v>
       </c>
       <c r="B14" s="2" t="n">
@@ -540,7 +550,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+      <c r="A15" s="5" t="n">
         <v>44871</v>
       </c>
       <c r="B15" s="2" t="n">
@@ -557,7 +567,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="5" t="n">
         <v>44872</v>
       </c>
       <c r="B16" s="2" t="n">
@@ -574,7 +584,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+      <c r="A17" s="5" t="n">
         <v>44885</v>
       </c>
       <c r="B17" s="2" t="n">
@@ -591,7 +601,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="5" t="n">
         <v>44886</v>
       </c>
       <c r="B18" s="2" t="n">
@@ -607,18 +617,18 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="6"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="6"/>
+      <c r="F20" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/test1old.xlsx
+++ b/test1old.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t xml:space="preserve">Example TableOld</t>
   </si>
@@ -43,10 +43,16 @@
     <t xml:space="preserve">xltablediff.py  --key ID --merge Color test1old.xlsx test1new.xlsx --out test1merge.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">Append test:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xltablediff.py  --key ID --append test1old.xlsx test1new.xlsx --out test1append.xlsx</t>
+    <t xml:space="preserve">oldAppend test:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xltablediff.py  --key ID --oldAppend test1old.xlsx test1new.xlsx --out test1oldAppend.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newAppend test:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xltablediff.py  --key ID --newAppend test1old.xlsx test1new.xlsx --out test1newAppend.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">Date</t>
@@ -198,12 +204,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -258,7 +270,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -275,6 +287,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -283,11 +307,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -368,10 +392,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -398,7 +422,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -406,224 +430,232 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="n">
         <v>44866</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="n">
         <v>44866</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="n">
         <v>44867</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B11" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="n">
         <v>44867</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B12" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="n">
         <v>44868</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B13" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="n">
         <v>44870</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="n">
         <v>44870</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B15" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
+      <c r="D15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="n">
         <v>44871</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B16" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="n">
         <v>44872</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B17" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
-        <v>44885</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
-        <v>44886</v>
+      <c r="A18" s="8" t="n">
+        <v>44885</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="7"/>
+      <c r="A19" s="8" t="n">
+        <v>44886</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/test1old.xlsx
+++ b/test1old.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t xml:space="preserve">Example TableOld</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t xml:space="preserve">Thailand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trailing row here</t>
   </si>
 </sst>
 </file>
@@ -270,7 +267,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -284,10 +281,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -395,10 +388,10 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="21:21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -433,15 +426,15 @@
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -463,7 +456,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+      <c r="A9" s="6" t="n">
         <v>44866</v>
       </c>
       <c r="B9" s="2" t="n">
@@ -480,7 +473,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+      <c r="A10" s="7" t="n">
         <v>44866</v>
       </c>
       <c r="B10" s="2" t="n">
@@ -497,7 +490,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+      <c r="A11" s="7" t="n">
         <v>44867</v>
       </c>
       <c r="B11" s="2" t="n">
@@ -514,7 +507,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+      <c r="A12" s="7" t="n">
         <v>44867</v>
       </c>
       <c r="B12" s="2" t="n">
@@ -531,13 +524,13 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+      <c r="A13" s="7" t="n">
         <v>44868</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -548,7 +541,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
+      <c r="A14" s="7" t="n">
         <v>44870</v>
       </c>
       <c r="B14" s="2" t="n">
@@ -565,7 +558,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
+      <c r="A15" s="7" t="n">
         <v>44870</v>
       </c>
       <c r="B15" s="2" t="n">
@@ -582,7 +575,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
+      <c r="A16" s="7" t="n">
         <v>44871</v>
       </c>
       <c r="B16" s="2" t="n">
@@ -599,7 +592,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
+      <c r="A17" s="7" t="n">
         <v>44872</v>
       </c>
       <c r="B17" s="2" t="n">
@@ -616,7 +609,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="n">
+      <c r="A18" s="7" t="n">
         <v>44885</v>
       </c>
       <c r="B18" s="2" t="n">
@@ -633,7 +626,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
+      <c r="A19" s="7" t="n">
         <v>44886</v>
       </c>
       <c r="B19" s="2" t="n">
@@ -649,18 +642,16 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="10"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="10"/>
+      <c r="A21" s="2"/>
+      <c r="F21" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
